--- a/mobley/reference-data/RTIL.xlsx
+++ b/mobley/reference-data/RTIL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ali/repos/testasymmetry/mobley/reference-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FB2E08-C7E4-5540-81EF-56270BEBC5FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DC5896-04BA-9B41-98B8-45D1BF7788B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Latif" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="189">
   <si>
     <t xml:space="preserve">4-Methylimidazole-D </t>
   </si>
@@ -600,6 +600,15 @@
   <si>
     <t>AA</t>
   </si>
+  <si>
+    <t>[bmim][NTf2]</t>
+  </si>
+  <si>
+    <t>[emim][NTf2]</t>
+  </si>
+  <si>
+    <t>Krossing06 T dependence</t>
+  </si>
 </sst>
 </file>
 
@@ -757,7 +766,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -780,6 +789,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -788,7 +836,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -864,20 +912,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -896,9 +932,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -953,15 +986,6 @@
     <xf numFmtId="2" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -969,9 +993,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1017,6 +1038,58 @@
     </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1338,7 +1411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -1356,25 +1429,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="19">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="86" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
       <c r="N1" s="22"/>
-      <c r="O1" s="70" t="s">
+      <c r="O1" s="87" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1421,52 +1494,52 @@
       <c r="N2" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="O2" s="70"/>
+      <c r="O2" s="87"/>
     </row>
     <row r="3" spans="1:22" ht="16" customHeight="1">
       <c r="A3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="86">
+      <c r="C3" s="77">
         <v>1.6849904397705542</v>
       </c>
-      <c r="D3" s="87">
+      <c r="D3" s="78">
         <v>1.5200764818355639</v>
       </c>
-      <c r="E3" s="88">
+      <c r="E3" s="79">
         <v>1.6658699808795407</v>
       </c>
-      <c r="F3" s="87">
+      <c r="F3" s="78">
         <v>1.6563097514340339</v>
       </c>
-      <c r="G3" s="86">
+      <c r="G3" s="77">
         <v>1.5320267686424471</v>
       </c>
-      <c r="H3" s="86">
+      <c r="H3" s="77">
         <v>2.2370936902485656</v>
       </c>
-      <c r="I3" s="86">
+      <c r="I3" s="77">
         <v>1.9407265774378581</v>
       </c>
-      <c r="J3" s="86">
+      <c r="J3" s="77">
         <v>2.2490439770554493</v>
       </c>
-      <c r="K3" s="86">
+      <c r="K3" s="77">
         <v>2.54</v>
       </c>
-      <c r="L3" s="86">
+      <c r="L3" s="77">
         <v>1.9359464627151051</v>
       </c>
-      <c r="M3" s="86">
+      <c r="M3" s="77">
         <v>2.0331674281813021</v>
       </c>
-      <c r="N3" s="89">
+      <c r="N3" s="80">
         <v>-0.87</v>
       </c>
-      <c r="O3" s="70"/>
+      <c r="O3" s="87"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -1479,46 +1552,46 @@
       <c r="A4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="86">
+      <c r="C4" s="77">
         <v>0.45172084130019097</v>
       </c>
-      <c r="D4" s="87">
+      <c r="D4" s="78">
         <v>-0.30831739961759119</v>
       </c>
-      <c r="E4" s="88">
+      <c r="E4" s="79">
         <v>3.5850860420649777E-2</v>
       </c>
-      <c r="F4" s="87">
+      <c r="F4" s="78">
         <v>0.10994263862332643</v>
       </c>
-      <c r="G4" s="86">
+      <c r="G4" s="77">
         <v>5.7361376673040088E-2</v>
       </c>
-      <c r="H4" s="86">
+      <c r="H4" s="77">
         <v>2.6314531548757167</v>
       </c>
-      <c r="I4" s="86">
+      <c r="I4" s="77">
         <v>1.9909177820267685</v>
       </c>
-      <c r="J4" s="86">
+      <c r="J4" s="77">
         <v>2.5501912045889101</v>
       </c>
-      <c r="K4" s="86">
+      <c r="K4" s="77">
         <v>2.56</v>
       </c>
-      <c r="L4" s="86">
+      <c r="L4" s="77">
         <v>1.9837476099426388</v>
       </c>
-      <c r="M4" s="86">
+      <c r="M4" s="77">
         <v>2.2013346298676155</v>
       </c>
       <c r="N4" s="25">
         <v>-3.1</v>
       </c>
-      <c r="O4" s="70"/>
+      <c r="O4" s="87"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -1531,46 +1604,46 @@
       <c r="A5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="86">
+      <c r="C5" s="77">
         <v>-0.21510516252390088</v>
       </c>
-      <c r="D5" s="87">
+      <c r="D5" s="78">
         <v>-1.0492351816443595</v>
       </c>
-      <c r="E5" s="88">
+      <c r="E5" s="79">
         <v>-1.1328871892925432</v>
       </c>
-      <c r="F5" s="87">
+      <c r="F5" s="78">
         <v>-0.90822179732313613</v>
       </c>
-      <c r="G5" s="86">
+      <c r="G5" s="77">
         <v>-0.33221797323135771</v>
       </c>
-      <c r="H5" s="86">
+      <c r="H5" s="77">
         <v>2.7437858508604207</v>
       </c>
-      <c r="I5" s="86">
+      <c r="I5" s="77">
         <v>2.1510516252390057</v>
       </c>
-      <c r="J5" s="86">
+      <c r="J5" s="77">
         <v>2.6792543021032507</v>
       </c>
-      <c r="K5" s="86">
+      <c r="K5" s="77">
         <v>2.5399999999999996</v>
       </c>
-      <c r="L5" s="86">
+      <c r="L5" s="77">
         <v>2.1510516252390057</v>
       </c>
-      <c r="M5" s="86">
+      <c r="M5" s="77">
         <v>2.2773140396262903</v>
       </c>
       <c r="N5" s="25">
         <v>-3.98</v>
       </c>
-      <c r="O5" s="70"/>
+      <c r="O5" s="87"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -1583,46 +1656,46 @@
       <c r="A6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="86">
+      <c r="C6" s="77">
         <v>-0.17686424474187401</v>
       </c>
-      <c r="D6" s="87">
+      <c r="D6" s="78">
         <v>-0.65965583173996167</v>
       </c>
-      <c r="E6" s="86">
+      <c r="E6" s="77">
         <v>-0.91539196940726608</v>
       </c>
-      <c r="F6" s="87">
+      <c r="F6" s="78">
         <v>-0.21510516252390088</v>
       </c>
-      <c r="G6" s="86">
+      <c r="G6" s="77">
         <v>0.22227533460803039</v>
       </c>
-      <c r="H6" s="86">
+      <c r="H6" s="77">
         <v>2.3924474187380498</v>
       </c>
-      <c r="I6" s="86">
+      <c r="I6" s="77">
         <v>2.2801147227533458</v>
       </c>
-      <c r="J6" s="86">
+      <c r="J6" s="77">
         <v>2.7103250478011471</v>
       </c>
-      <c r="K6" s="86">
+      <c r="K6" s="77">
         <v>2.7399999999999998</v>
       </c>
-      <c r="L6" s="86">
+      <c r="L6" s="77">
         <v>2.2705544933078392</v>
       </c>
-      <c r="M6" s="86">
+      <c r="M6" s="77">
         <v>2.2655941560687549</v>
       </c>
       <c r="N6" s="25">
         <v>-3.98</v>
       </c>
-      <c r="O6" s="70"/>
+      <c r="O6" s="87"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -1635,46 +1708,46 @@
       <c r="A7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="86">
+      <c r="C7" s="77">
         <v>-1.1113766730401533</v>
       </c>
-      <c r="D7" s="87">
+      <c r="D7" s="78">
         <v>-1.9598470363288714</v>
       </c>
-      <c r="E7" s="88">
+      <c r="E7" s="79">
         <v>-1.1615678776290634</v>
       </c>
-      <c r="F7" s="87">
+      <c r="F7" s="78">
         <v>-1.8570745697896749</v>
       </c>
-      <c r="G7" s="86">
+      <c r="G7" s="77">
         <v>-1.4101338432122374</v>
       </c>
-      <c r="H7" s="86">
+      <c r="H7" s="77">
         <v>-0.40869980879541107</v>
       </c>
-      <c r="I7" s="86">
+      <c r="I7" s="77">
         <v>-0.76003824091778205</v>
       </c>
-      <c r="J7" s="86">
+      <c r="J7" s="77">
         <v>-0.65009560229445507</v>
       </c>
-      <c r="K7" s="86">
+      <c r="K7" s="77">
         <v>-0.71000000000000019</v>
       </c>
-      <c r="L7" s="86">
+      <c r="L7" s="77">
         <v>-0.76481835564053535</v>
       </c>
-      <c r="M7" s="86">
+      <c r="M7" s="77">
         <v>-0.45211147060647017</v>
       </c>
       <c r="N7" s="25">
         <v>-2.04</v>
       </c>
-      <c r="O7" s="70"/>
+      <c r="O7" s="87"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1687,46 +1760,46 @@
       <c r="A8" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="86">
+      <c r="C8" s="77">
         <v>1.737571701720841</v>
       </c>
-      <c r="D8" s="87">
+      <c r="D8" s="78">
         <v>1.3193116634799233</v>
       </c>
-      <c r="E8" s="88">
+      <c r="E8" s="79">
         <v>1.3097514340344165</v>
       </c>
-      <c r="F8" s="87">
+      <c r="F8" s="78">
         <v>1.9956978967495216</v>
       </c>
-      <c r="G8" s="86">
+      <c r="G8" s="77">
         <v>-0.52581261950286828</v>
       </c>
-      <c r="H8" s="86">
+      <c r="H8" s="77">
         <v>-4.8087954110898661</v>
       </c>
-      <c r="I8" s="86">
+      <c r="I8" s="77">
         <v>-5.0597514340344167</v>
       </c>
-      <c r="J8" s="86">
+      <c r="J8" s="77">
         <v>-4.7108030592734229</v>
       </c>
-      <c r="K8" s="86">
+      <c r="K8" s="77">
         <v>-3.4800000000000004</v>
       </c>
-      <c r="L8" s="86">
+      <c r="L8" s="77">
         <v>-5.0669216061185463</v>
       </c>
-      <c r="M8" s="86">
+      <c r="M8" s="77">
         <v>-5.5068201341663698</v>
       </c>
       <c r="N8" s="25">
         <v>4.34</v>
       </c>
-      <c r="O8" s="70"/>
+      <c r="O8" s="87"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -1739,46 +1812,46 @@
       <c r="A9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="86">
+      <c r="C9" s="77">
         <v>1.9072657743785848</v>
       </c>
-      <c r="D9" s="87">
+      <c r="D9" s="78">
         <v>1.5176864244741872</v>
       </c>
-      <c r="E9" s="88">
+      <c r="E9" s="79">
         <v>2.1606118546845119</v>
       </c>
-      <c r="F9" s="87">
+      <c r="F9" s="78">
         <v>1.7184512428298278</v>
       </c>
-      <c r="G9" s="86">
+      <c r="G9" s="77">
         <v>-1.6467495219885278</v>
       </c>
-      <c r="H9" s="86">
+      <c r="H9" s="77">
         <v>-4.6701720841300203</v>
       </c>
-      <c r="I9" s="86">
+      <c r="I9" s="77">
         <v>-4.8804971319311665</v>
       </c>
-      <c r="J9" s="86">
+      <c r="J9" s="77">
         <v>-4.469407265774378</v>
       </c>
-      <c r="K9" s="86">
+      <c r="K9" s="77">
         <v>-3.45</v>
       </c>
-      <c r="L9" s="86">
+      <c r="L9" s="77">
         <v>-4.8757170172084123</v>
       </c>
-      <c r="M9" s="86">
+      <c r="M9" s="77">
         <v>-5.072153696346259</v>
       </c>
       <c r="N9" s="25">
         <v>3.51</v>
       </c>
-      <c r="O9" s="70"/>
+      <c r="O9" s="87"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1791,46 +1864,46 @@
       <c r="A10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="86">
+      <c r="C10" s="77">
         <v>-2.1940726577437859</v>
       </c>
-      <c r="D10" s="87">
+      <c r="D10" s="78">
         <v>-1.692160611854685</v>
       </c>
-      <c r="E10" s="88">
+      <c r="E10" s="79">
         <v>-1.6132887189292542</v>
       </c>
-      <c r="F10" s="87">
+      <c r="F10" s="78">
         <v>-3.2887189292543022</v>
       </c>
-      <c r="G10" s="86">
+      <c r="G10" s="77">
         <v>-8.0951242829827912</v>
       </c>
-      <c r="H10" s="86">
+      <c r="H10" s="77">
         <v>-5.0406309751434035</v>
       </c>
-      <c r="I10" s="86">
+      <c r="I10" s="77">
         <v>-6.1089866156787753</v>
       </c>
-      <c r="J10" s="86">
+      <c r="J10" s="77">
         <v>-5.0597514340344167</v>
       </c>
-      <c r="K10" s="86">
+      <c r="K10" s="77">
         <v>-5.36</v>
       </c>
-      <c r="L10" s="86">
+      <c r="L10" s="77">
         <v>-6.1185468451242828</v>
       </c>
-      <c r="M10" s="86">
+      <c r="M10" s="77">
         <v>-6.2583737772296306</v>
       </c>
       <c r="N10" s="25">
         <v>1.08</v>
       </c>
-      <c r="O10" s="70"/>
+      <c r="O10" s="87"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -1843,46 +1916,46 @@
       <c r="A11" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="86">
+      <c r="C11" s="77">
         <v>1.7543021032504778</v>
       </c>
-      <c r="D11" s="87">
+      <c r="D11" s="78">
         <v>1.108986615678776</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="79">
         <v>1.5989483747609938</v>
       </c>
-      <c r="F11" s="87">
+      <c r="F11" s="78">
         <v>1.4674952198852769</v>
       </c>
-      <c r="G11" s="86">
+      <c r="G11" s="77">
         <v>1.3097514340344165</v>
       </c>
-      <c r="H11" s="86">
+      <c r="H11" s="77">
         <v>-0.6739961759082217</v>
       </c>
-      <c r="I11" s="86">
+      <c r="I11" s="77">
         <v>-1.2404397705544934</v>
       </c>
-      <c r="J11" s="86">
+      <c r="J11" s="77">
         <v>-0.43021032504780116</v>
       </c>
-      <c r="K11" s="86">
+      <c r="K11" s="77">
         <v>-0.26</v>
       </c>
-      <c r="L11" s="86">
+      <c r="L11" s="77">
         <v>-1.24282982791587</v>
       </c>
-      <c r="M11" s="86">
+      <c r="M11" s="77">
         <v>-1.45242894365883</v>
       </c>
       <c r="N11" s="25">
         <v>-0.34</v>
       </c>
-      <c r="O11" s="70"/>
+      <c r="O11" s="87"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -1895,46 +1968,46 @@
       <c r="A12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="86">
+      <c r="C12" s="77">
         <v>-0.14340344168260089</v>
       </c>
-      <c r="D12" s="87">
+      <c r="D12" s="78">
         <v>-0.58556405353728502</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="79">
         <v>-0.55927342256214141</v>
       </c>
-      <c r="F12" s="87">
+      <c r="F12" s="78">
         <v>-0.37762906309751454</v>
       </c>
-      <c r="G12" s="86">
+      <c r="G12" s="77">
         <v>-0.8628107074569793</v>
       </c>
-      <c r="H12" s="86">
+      <c r="H12" s="77">
         <v>-0.17447418738049711</v>
       </c>
-      <c r="I12" s="86">
+      <c r="I12" s="77">
         <v>-1.4794455066921606</v>
       </c>
-      <c r="J12" s="86">
+      <c r="J12" s="77">
         <v>-6.9311663479923513E-2</v>
       </c>
-      <c r="K12" s="86">
+      <c r="K12" s="77">
         <v>0.34000000000000008</v>
       </c>
-      <c r="L12" s="86">
+      <c r="L12" s="77">
         <v>-1.4818355640535372</v>
       </c>
-      <c r="M12" s="86">
+      <c r="M12" s="77">
         <v>-2.5974461305239949E-2</v>
       </c>
       <c r="N12" s="25">
         <v>-1.41</v>
       </c>
-      <c r="O12" s="70"/>
+      <c r="O12" s="87"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -1947,46 +2020,46 @@
       <c r="A13" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="86">
+      <c r="C13" s="77">
         <v>6.9311663479923347E-2</v>
       </c>
-      <c r="D13" s="87">
+      <c r="D13" s="78">
         <v>1.3049713193116632</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="79">
         <v>0.72657743785850837</v>
       </c>
-      <c r="F13" s="87">
+      <c r="F13" s="78">
         <v>-0.19598470363288722</v>
       </c>
-      <c r="G13" s="91">
+      <c r="G13" s="82">
         <v>-5.2820267686424476</v>
       </c>
-      <c r="H13" s="86">
+      <c r="H13" s="77">
         <v>-8.8957934990439771</v>
       </c>
-      <c r="I13" s="86">
+      <c r="I13" s="77">
         <v>-9.679732313575526</v>
       </c>
-      <c r="J13" s="86">
+      <c r="J13" s="77">
         <v>-8.5205544933078379</v>
       </c>
-      <c r="K13" s="86">
+      <c r="K13" s="77">
         <v>-8.6199999999999992</v>
       </c>
-      <c r="L13" s="86">
+      <c r="L13" s="77">
         <v>-9.679732313575526</v>
       </c>
-      <c r="M13" s="86">
+      <c r="M13" s="77">
         <v>-10.58264584297361</v>
       </c>
       <c r="N13" s="25">
         <v>7.58</v>
       </c>
-      <c r="O13" s="70"/>
+      <c r="O13" s="87"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -1999,46 +2072,46 @@
       <c r="A14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="86">
+      <c r="C14" s="77">
         <v>-3.4799235181644361</v>
       </c>
-      <c r="D14" s="87">
+      <c r="D14" s="78">
         <v>-3.494263862332696</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="79">
         <v>-3.8097514340344167</v>
       </c>
-      <c r="F14" s="87">
+      <c r="F14" s="78">
         <v>-4.6988527724665392</v>
       </c>
-      <c r="G14" s="91">
+      <c r="G14" s="82">
         <v>-8.4201720841300194</v>
       </c>
-      <c r="H14" s="86">
+      <c r="H14" s="77">
         <v>-4.2232313575525815</v>
       </c>
-      <c r="I14" s="86">
+      <c r="I14" s="77">
         <v>-5.8795411089866159</v>
       </c>
-      <c r="J14" s="86">
+      <c r="J14" s="77">
         <v>-4.1395793499043974</v>
       </c>
-      <c r="K14" s="86">
+      <c r="K14" s="77">
         <v>-6.5500000000000007</v>
       </c>
-      <c r="L14" s="86">
+      <c r="L14" s="77">
         <v>-5.8795411089866159</v>
       </c>
-      <c r="M14" s="86">
+      <c r="M14" s="77">
         <v>-6.013725895313339</v>
       </c>
       <c r="N14" s="25">
         <v>-1.39</v>
       </c>
-      <c r="O14" s="70"/>
+      <c r="O14" s="87"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -2057,19 +2130,19 @@
       <c r="C15" s="25">
         <v>0.55210325047801145</v>
       </c>
-      <c r="D15" s="92">
+      <c r="D15" s="83">
         <v>0.71701720841300176</v>
       </c>
-      <c r="E15" s="93">
+      <c r="E15" s="84">
         <v>0.57122370936902489</v>
       </c>
-      <c r="F15" s="94">
+      <c r="F15" s="85">
         <v>0.58078393881453172</v>
       </c>
-      <c r="G15" s="94">
+      <c r="G15" s="85">
         <v>0.7050669216061185</v>
       </c>
-      <c r="H15" s="94">
+      <c r="H15" s="85">
         <v>-8.477533460803059</v>
       </c>
       <c r="I15" s="25">
@@ -2084,7 +2157,7 @@
       <c r="N15" s="25">
         <v>6.48</v>
       </c>
-      <c r="O15" s="70"/>
+      <c r="O15" s="87"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -2103,19 +2176,19 @@
       <c r="C16" s="25">
         <v>1.7853728489483747</v>
       </c>
-      <c r="D16" s="92">
+      <c r="D16" s="83">
         <v>2.5454110898661568</v>
       </c>
-      <c r="E16" s="93">
+      <c r="E16" s="84">
         <v>2.2012428298279159</v>
       </c>
-      <c r="F16" s="94">
+      <c r="F16" s="85">
         <v>2.1271510516252392</v>
       </c>
-      <c r="G16" s="94">
+      <c r="G16" s="85">
         <v>2.1797323135755255</v>
       </c>
-      <c r="H16" s="94">
+      <c r="H16" s="85">
         <v>-9.067877629063096</v>
       </c>
       <c r="I16" s="25">
@@ -2130,7 +2203,7 @@
       <c r="N16" s="25">
         <v>5.6</v>
       </c>
-      <c r="O16" s="70"/>
+      <c r="O16" s="87"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -2149,19 +2222,19 @@
       <c r="C17" s="25">
         <v>2.4521988527724665</v>
       </c>
-      <c r="D17" s="92">
+      <c r="D17" s="83">
         <v>3.2863288718929251</v>
       </c>
-      <c r="E17" s="93">
+      <c r="E17" s="84">
         <v>3.3699808795411088</v>
       </c>
-      <c r="F17" s="94">
+      <c r="F17" s="85">
         <v>3.1453154875717018</v>
       </c>
-      <c r="G17" s="94">
+      <c r="G17" s="85">
         <v>2.5693116634799233</v>
       </c>
-      <c r="H17" s="94">
+      <c r="H17" s="85">
         <v>-4.4000956022944546</v>
       </c>
       <c r="I17" s="25">
@@ -2176,7 +2249,7 @@
       <c r="N17" s="25">
         <v>5.6</v>
       </c>
-      <c r="O17" s="70"/>
+      <c r="O17" s="87"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -7150,1422 +7223,1422 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="19">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="90" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="72" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="89" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="70" t="s">
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="87" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="14" customFormat="1" ht="44" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="73" t="s">
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="73" t="s">
+      <c r="K2" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="73" t="s">
+      <c r="L2" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="73" t="s">
+      <c r="M2" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="73" t="s">
+      <c r="N2" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="73" t="s">
+      <c r="O2" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="73" t="s">
+      <c r="P2" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="73" t="s">
+      <c r="Q2" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="73" t="s">
+      <c r="R2" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="73" t="s">
+      <c r="S2" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="73" t="s">
+      <c r="T2" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="73" t="s">
+      <c r="U2" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="73" t="s">
+      <c r="V2" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="74" t="s">
+      <c r="W2" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="74" t="s">
+      <c r="X2" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="74" t="s">
+      <c r="Y2" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="74" t="s">
+      <c r="Z2" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="AA2" s="74" t="s">
+      <c r="AA2" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="70"/>
+      <c r="AB2" s="87"/>
     </row>
     <row r="3" spans="1:28" ht="19">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="76">
+      <c r="C3" s="88">
         <v>298</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76">
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88">
         <v>328</v>
       </c>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76">
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88">
         <v>358</v>
       </c>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76">
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88">
         <v>328</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="70"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="88"/>
+      <c r="Z3" s="88"/>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="87"/>
     </row>
     <row r="4" spans="1:28" ht="16" customHeight="1">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="70">
         <v>2.1967874599999999</v>
       </c>
-      <c r="D4" s="80">
+      <c r="D4" s="71">
         <v>0.31974804000000007</v>
       </c>
-      <c r="E4" s="79">
+      <c r="E4" s="70">
         <v>1.0244810880000002</v>
       </c>
-      <c r="F4" s="79">
+      <c r="F4" s="70">
         <v>0.96526252800000001</v>
       </c>
-      <c r="G4" s="79">
+      <c r="G4" s="70">
         <v>0.83498169599999994</v>
       </c>
-      <c r="H4" s="79">
+      <c r="H4" s="70">
         <v>2.5091836000000001</v>
       </c>
-      <c r="I4" s="80">
+      <c r="I4" s="71">
         <v>0.43014576000000004</v>
       </c>
-      <c r="J4" s="79">
+      <c r="J4" s="70">
         <v>1.1732428800000001</v>
       </c>
-      <c r="K4" s="79">
+      <c r="K4" s="70">
         <v>1.0950266880000001</v>
       </c>
-      <c r="L4" s="79">
+      <c r="L4" s="70">
         <v>0.99725644800000002</v>
       </c>
-      <c r="M4" s="79">
+      <c r="M4" s="70">
         <v>2.7529090200000002</v>
       </c>
-      <c r="N4" s="80">
+      <c r="N4" s="71">
         <v>0.53350949999999997</v>
       </c>
-      <c r="O4" s="79">
+      <c r="O4" s="70">
         <v>1.2947800320000002</v>
       </c>
-      <c r="P4" s="79">
+      <c r="P4" s="70">
         <v>1.2236382720000001</v>
       </c>
-      <c r="Q4" s="79">
+      <c r="Q4" s="70">
         <v>1.1026972800000001</v>
       </c>
-      <c r="R4" s="79">
+      <c r="R4" s="70">
         <v>-0.5213888000000001</v>
       </c>
-      <c r="S4" s="80">
+      <c r="S4" s="71">
         <v>-0.74949639999999995</v>
       </c>
-      <c r="T4" s="79">
+      <c r="T4" s="70">
         <v>-0.32590080000000005</v>
       </c>
-      <c r="U4" s="79">
+      <c r="U4" s="70">
         <v>-0.32590080000000005</v>
       </c>
-      <c r="V4" s="79">
+      <c r="V4" s="70">
         <v>-0.45626112000000002</v>
       </c>
-      <c r="W4" s="79">
+      <c r="W4" s="70">
         <v>-2.9979855999999998</v>
       </c>
-      <c r="X4" s="80">
+      <c r="X4" s="71">
         <v>-1.1796421600000002</v>
       </c>
-      <c r="Y4" s="79">
+      <c r="Y4" s="70">
         <v>-1.4991436800000002</v>
       </c>
-      <c r="Z4" s="79">
+      <c r="Z4" s="70">
         <v>-1.4339635200000003</v>
       </c>
-      <c r="AA4" s="79">
+      <c r="AA4" s="70">
         <v>-1.4991436800000002</v>
       </c>
-      <c r="AB4" s="70"/>
+      <c r="AB4" s="87"/>
     </row>
     <row r="5" spans="1:28" ht="16" customHeight="1">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="79">
+      <c r="C5" s="70">
         <v>2.4277166000000001</v>
       </c>
-      <c r="D5" s="80">
+      <c r="D5" s="71">
         <v>-1.4980787799999999</v>
       </c>
-      <c r="E5" s="79">
+      <c r="E5" s="70">
         <v>0.13028083200000001</v>
       </c>
-      <c r="F5" s="79">
+      <c r="F5" s="70">
         <v>-2.9609280000000002E-2</v>
       </c>
-      <c r="G5" s="79">
+      <c r="G5" s="70">
         <v>-0.313858368</v>
       </c>
-      <c r="H5" s="79">
+      <c r="H5" s="70">
         <v>2.94584672</v>
       </c>
-      <c r="I5" s="80">
+      <c r="I5" s="71">
         <v>-1.2252636800000001</v>
       </c>
-      <c r="J5" s="79">
+      <c r="J5" s="70">
         <v>0.40411699200000006</v>
       </c>
-      <c r="K5" s="79">
+      <c r="K5" s="70">
         <v>0.20205849600000003</v>
       </c>
-      <c r="L5" s="79">
+      <c r="L5" s="70">
         <v>-7.8216192000000004E-2</v>
       </c>
-      <c r="M5" s="79">
+      <c r="M5" s="70">
         <v>3.3006454399999998</v>
       </c>
-      <c r="N5" s="80">
+      <c r="N5" s="71">
         <v>-1.0243382400000001</v>
       </c>
-      <c r="O5" s="79">
+      <c r="O5" s="70">
         <v>0.64739001600000012</v>
       </c>
-      <c r="P5" s="79">
+      <c r="P5" s="70">
         <v>0.44107891200000005</v>
       </c>
-      <c r="Q5" s="79">
+      <c r="Q5" s="70">
         <v>0.14228352000000002</v>
       </c>
-      <c r="R5" s="79">
+      <c r="R5" s="70">
         <v>-1.8248607999999999</v>
       </c>
-      <c r="S5" s="80">
+      <c r="S5" s="71">
         <v>-3.7800688</v>
       </c>
-      <c r="T5" s="79">
+      <c r="T5" s="70">
         <v>-2.4116659200000004</v>
       </c>
-      <c r="U5" s="79">
+      <c r="U5" s="70">
         <v>-2.3464857600000002</v>
       </c>
-      <c r="V5" s="79">
+      <c r="V5" s="70">
         <v>-2.5420262400000002</v>
       </c>
-      <c r="W5" s="79">
+      <c r="W5" s="70">
         <v>-4.7576727999999999</v>
       </c>
-      <c r="X5" s="80">
+      <c r="X5" s="71">
         <v>-2.6069439999999999</v>
       </c>
-      <c r="Y5" s="79">
+      <c r="Y5" s="70">
         <v>-2.8679270400000005</v>
       </c>
-      <c r="Z5" s="79">
+      <c r="Z5" s="70">
         <v>-2.6072064000000004</v>
       </c>
-      <c r="AA5" s="79">
+      <c r="AA5" s="70">
         <v>-2.4768460800000001</v>
       </c>
-      <c r="AB5" s="70"/>
+      <c r="AB5" s="87"/>
     </row>
     <row r="6" spans="1:28" ht="16" customHeight="1">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="79">
+      <c r="C6" s="70">
         <v>2.5461418</v>
       </c>
-      <c r="D6" s="80">
+      <c r="D6" s="71">
         <v>-2.3566614800000001</v>
       </c>
-      <c r="E6" s="79">
+      <c r="E6" s="70">
         <v>-0.23095238400000004</v>
       </c>
-      <c r="F6" s="79">
+      <c r="F6" s="70">
         <v>-0.527045184</v>
       </c>
-      <c r="G6" s="79">
+      <c r="G6" s="70">
         <v>-0.86459097600000001</v>
       </c>
-      <c r="H6" s="79">
+      <c r="H6" s="70">
         <v>3.1152980800000005</v>
       </c>
-      <c r="I6" s="80">
+      <c r="I6" s="71">
         <v>-2.0594857600000003</v>
       </c>
-      <c r="J6" s="79">
+      <c r="J6" s="70">
         <v>6.5180160000000006E-3</v>
       </c>
-      <c r="K6" s="79">
+      <c r="K6" s="70">
         <v>-0.17598643200000005</v>
       </c>
-      <c r="L6" s="79">
+      <c r="L6" s="70">
         <v>-0.57358540800000002</v>
       </c>
-      <c r="M6" s="79">
+      <c r="M6" s="70">
         <v>3.5496165400000002</v>
       </c>
-      <c r="N6" s="80">
+      <c r="N6" s="71">
         <v>-1.7427977000000001</v>
       </c>
-      <c r="O6" s="79">
+      <c r="O6" s="70">
         <v>0.36282297600000002</v>
       </c>
-      <c r="P6" s="79">
+      <c r="P6" s="70">
         <v>0.13516934400000002</v>
       </c>
-      <c r="Q6" s="79">
+      <c r="Q6" s="70">
         <v>-0.27745286400000002</v>
       </c>
-      <c r="R6" s="79">
+      <c r="R6" s="70">
         <v>-2.3462496000000002</v>
       </c>
-      <c r="S6" s="80">
+      <c r="S6" s="71">
         <v>-5.4094088000000005</v>
       </c>
-      <c r="T6" s="79">
+      <c r="T6" s="70">
         <v>-3.2590080000000001</v>
       </c>
-      <c r="U6" s="79">
+      <c r="U6" s="70">
         <v>-3.7804492800000005</v>
       </c>
-      <c r="V6" s="79">
+      <c r="V6" s="70">
         <v>-3.7804492800000005</v>
       </c>
-      <c r="W6" s="79">
+      <c r="W6" s="70">
         <v>-5.474582400000001</v>
       </c>
-      <c r="X6" s="80">
+      <c r="X6" s="71">
         <v>-3.3238536000000001</v>
       </c>
-      <c r="Y6" s="79">
+      <c r="Y6" s="70">
         <v>-3.2590080000000001</v>
       </c>
-      <c r="Z6" s="79">
+      <c r="Z6" s="70">
         <v>-3.5849088000000005</v>
       </c>
-      <c r="AA6" s="79">
+      <c r="AA6" s="70">
         <v>-3.1938278400000004</v>
       </c>
-      <c r="AB6" s="70"/>
+      <c r="AB6" s="87"/>
     </row>
     <row r="7" spans="1:28" ht="16" customHeight="1">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="79">
+      <c r="C7" s="70">
         <v>2.4987717200000001</v>
       </c>
-      <c r="D7" s="80">
+      <c r="D7" s="71">
         <v>-2.2678425799999999</v>
       </c>
-      <c r="E7" s="79">
+      <c r="E7" s="70">
         <v>-0.23095238400000004</v>
       </c>
-      <c r="F7" s="79">
+      <c r="F7" s="70">
         <v>-0.56849817599999997</v>
       </c>
-      <c r="G7" s="79">
+      <c r="G7" s="70">
         <v>-0.78168499200000008</v>
       </c>
-      <c r="H7" s="79">
+      <c r="H7" s="70">
         <v>3.1609196000000002</v>
       </c>
-      <c r="I7" s="80">
+      <c r="I7" s="71">
         <v>-1.9943121600000002</v>
       </c>
-      <c r="J7" s="79">
+      <c r="J7" s="70">
         <v>0.117324288</v>
       </c>
-      <c r="K7" s="79">
+      <c r="K7" s="70">
         <v>-0.15643238400000001</v>
       </c>
-      <c r="L7" s="79">
+      <c r="L7" s="70">
         <v>-0.58662144000000005</v>
       </c>
-      <c r="M7" s="79">
+      <c r="M7" s="70">
         <v>3.47848194</v>
       </c>
-      <c r="N7" s="80">
+      <c r="N7" s="71">
         <v>1.7214573200000001</v>
       </c>
-      <c r="O7" s="79">
+      <c r="O7" s="70">
         <v>0.31302374399999999</v>
       </c>
-      <c r="P7" s="79">
+      <c r="P7" s="70">
         <v>4.2685055999999999E-2</v>
       </c>
-      <c r="Q7" s="79">
+      <c r="Q7" s="70">
         <v>-0.29168121599999997</v>
       </c>
-      <c r="R7" s="79">
+      <c r="R7" s="70">
         <v>-2.2159024</v>
       </c>
-      <c r="S7" s="80">
+      <c r="S7" s="71">
         <v>-4.9531935999999996</v>
       </c>
-      <c r="T7" s="79">
+      <c r="T7" s="70">
         <v>-2.8679270400000005</v>
       </c>
-      <c r="U7" s="79">
+      <c r="U7" s="70">
         <v>-3.4545484800000001</v>
       </c>
-      <c r="V7" s="79">
+      <c r="V7" s="70">
         <v>-3.2590080000000001</v>
       </c>
-      <c r="W7" s="79">
+      <c r="W7" s="70">
         <v>-5.3442352</v>
       </c>
-      <c r="X7" s="80">
+      <c r="X7" s="71">
         <v>-2.9979855999999998</v>
       </c>
-      <c r="Y7" s="79">
+      <c r="Y7" s="70">
         <v>-2.9982873600000004</v>
       </c>
-      <c r="Z7" s="79">
+      <c r="Z7" s="70">
         <v>-3.3241881599999998</v>
       </c>
-      <c r="AA7" s="79">
+      <c r="AA7" s="70">
         <v>-2.6723865600000001</v>
       </c>
-      <c r="AB7" s="70"/>
+      <c r="AB7" s="87"/>
     </row>
     <row r="8" spans="1:28" ht="16" customHeight="1">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="79">
+      <c r="C8" s="70">
         <v>-0.78160632000000008</v>
       </c>
-      <c r="D8" s="80">
+      <c r="D8" s="71">
         <v>-4.5120001200000006</v>
       </c>
-      <c r="E8" s="79">
+      <c r="E8" s="70">
         <v>-4.1926740480000007</v>
       </c>
-      <c r="F8" s="79">
+      <c r="F8" s="70">
         <v>-4.2637363200000005</v>
       </c>
-      <c r="G8" s="79">
+      <c r="G8" s="70">
         <v>-4.4828449920000004</v>
       </c>
-      <c r="H8" s="79">
+      <c r="H8" s="70">
         <v>-3.9104159999999999E-2</v>
       </c>
-      <c r="I8" s="80">
+      <c r="I8" s="71">
         <v>-4.1580756799999996</v>
       </c>
-      <c r="J8" s="79">
+      <c r="J8" s="70">
         <v>-3.6631249920000006</v>
       </c>
-      <c r="K8" s="79">
+      <c r="K8" s="70">
         <v>-3.7674132480000004</v>
       </c>
-      <c r="L8" s="79">
+      <c r="L8" s="70">
         <v>-4.0607239680000005</v>
       </c>
-      <c r="M8" s="79">
+      <c r="M8" s="70">
         <v>0.46237490000000003</v>
       </c>
-      <c r="N8" s="80">
+      <c r="N8" s="71">
         <v>-3.8554953199999997</v>
       </c>
-      <c r="O8" s="79">
+      <c r="O8" s="70">
         <v>-3.180036672</v>
       </c>
-      <c r="P8" s="79">
+      <c r="P8" s="70">
         <v>-3.3578910720000001</v>
       </c>
-      <c r="Q8" s="79">
+      <c r="Q8" s="70">
         <v>-3.5357454719999999</v>
       </c>
-      <c r="R8" s="79">
+      <c r="R8" s="70">
         <v>-6.8432279999999999</v>
       </c>
-      <c r="S8" s="80">
+      <c r="S8" s="71">
         <v>-7.7556584000000006</v>
       </c>
-      <c r="T8" s="79">
+      <c r="T8" s="70">
         <v>-9.1904025600000008</v>
       </c>
-      <c r="U8" s="79">
+      <c r="U8" s="70">
         <v>-8.7341414400000001</v>
       </c>
-      <c r="V8" s="79">
+      <c r="V8" s="70">
         <v>-9.2555827200000014</v>
       </c>
-      <c r="W8" s="79">
+      <c r="W8" s="70">
         <v>-6.7780544000000011</v>
       </c>
-      <c r="X8" s="80">
+      <c r="X8" s="71">
         <v>-3.5845480000000003</v>
       </c>
-      <c r="Y8" s="79">
+      <c r="Y8" s="70">
         <v>-5.5403136000000011</v>
       </c>
-      <c r="Z8" s="79">
+      <c r="Z8" s="70">
         <v>-4.9536921600000001</v>
       </c>
-      <c r="AA8" s="79">
+      <c r="AA8" s="70">
         <v>-5.149232640000001</v>
       </c>
-      <c r="AB8" s="70"/>
+      <c r="AB8" s="87"/>
     </row>
     <row r="9" spans="1:28" ht="16" customHeight="1">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="79">
+      <c r="C9" s="70">
         <v>-4.967937140000001</v>
       </c>
-      <c r="D9" s="80">
+      <c r="D9" s="71">
         <v>-3.2626142600000003</v>
       </c>
-      <c r="E9" s="79">
+      <c r="E9" s="70">
         <v>-3.8432845440000007</v>
       </c>
-      <c r="F9" s="79">
+      <c r="F9" s="70">
         <v>-3.7544567040000003</v>
       </c>
-      <c r="G9" s="79">
+      <c r="G9" s="70">
         <v>-3.6952381440000006</v>
       </c>
-      <c r="H9" s="79">
+      <c r="H9" s="70">
         <v>-4.4774263200000002</v>
       </c>
-      <c r="I9" s="80">
+      <c r="I9" s="71">
         <v>-2.9979855999999998</v>
       </c>
-      <c r="J9" s="79">
+      <c r="J9" s="70">
         <v>-3.3893683200000004</v>
       </c>
-      <c r="K9" s="79">
+      <c r="K9" s="70">
         <v>-3.3502602240000003</v>
       </c>
-      <c r="L9" s="79">
+      <c r="L9" s="70">
         <v>-3.3046341120000005</v>
       </c>
-      <c r="M9" s="79">
+      <c r="M9" s="70">
         <v>-4.0048779799999998</v>
       </c>
-      <c r="N9" s="80">
+      <c r="N9" s="71">
         <v>-2.6248667399999999</v>
       </c>
-      <c r="O9" s="79">
+      <c r="O9" s="70">
         <v>-3.0448673280000005</v>
       </c>
-      <c r="P9" s="79">
+      <c r="P9" s="70">
         <v>-3.0235248000000006</v>
       </c>
-      <c r="Q9" s="79">
+      <c r="Q9" s="70">
         <v>-2.8741271040000007</v>
       </c>
-      <c r="R9" s="79">
+      <c r="R9" s="70">
         <v>-9.7108664000000005</v>
       </c>
-      <c r="S9" s="80">
+      <c r="S9" s="71">
         <v>-6.4521864000000004</v>
       </c>
-      <c r="T9" s="79">
+      <c r="T9" s="70">
         <v>-7.7564390400000018</v>
       </c>
-      <c r="U9" s="79">
+      <c r="U9" s="70">
         <v>-7.3653580800000009</v>
       </c>
-      <c r="V9" s="79">
+      <c r="V9" s="70">
         <v>-7.7564390400000018</v>
       </c>
-      <c r="W9" s="79">
+      <c r="W9" s="70">
         <v>-5.2790615999999995</v>
       </c>
-      <c r="X9" s="80">
+      <c r="X9" s="71">
         <v>-3.4542007999999997</v>
       </c>
-      <c r="Y9" s="79">
+      <c r="Y9" s="70">
         <v>-4.3670707200000001</v>
       </c>
-      <c r="Z9" s="79">
+      <c r="Z9" s="70">
         <v>-3.97598976</v>
       </c>
-      <c r="AA9" s="79">
+      <c r="AA9" s="70">
         <v>-4.4974310400000004</v>
       </c>
-      <c r="AB9" s="70"/>
+      <c r="AB9" s="87"/>
     </row>
     <row r="10" spans="1:28" ht="16" customHeight="1">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="79">
+      <c r="C10" s="70">
         <v>-4.9264883200000007</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="71">
         <v>-4.2929135</v>
       </c>
-      <c r="E10" s="79">
+      <c r="E10" s="70">
         <v>-4.1926740480000007</v>
       </c>
-      <c r="F10" s="79">
+      <c r="F10" s="70">
         <v>-4.1275336320000005</v>
       </c>
-      <c r="G10" s="79">
+      <c r="G10" s="70">
         <v>-4.1216117759999999</v>
       </c>
-      <c r="H10" s="79">
+      <c r="H10" s="70">
         <v>-4.2884228800000006</v>
       </c>
-      <c r="I10" s="80">
+      <c r="I10" s="71">
         <v>-3.6562389600000005</v>
       </c>
-      <c r="J10" s="79">
+      <c r="J10" s="70">
         <v>-3.6500889600000002</v>
       </c>
-      <c r="K10" s="79">
+      <c r="K10" s="70">
         <v>-3.6370529280000001</v>
       </c>
-      <c r="L10" s="79">
+      <c r="L10" s="70">
         <v>-3.6109808640000001</v>
       </c>
-      <c r="M10" s="79">
+      <c r="M10" s="70">
         <v>-3.6563184399999997</v>
       </c>
-      <c r="N10" s="80">
+      <c r="N10" s="71">
         <v>-3.2508512200000004</v>
       </c>
-      <c r="O10" s="79">
+      <c r="O10" s="70">
         <v>-3.2582926080000005</v>
       </c>
-      <c r="P10" s="79">
+      <c r="P10" s="70">
         <v>-3.2440642560000001</v>
       </c>
-      <c r="Q10" s="79">
+      <c r="Q10" s="70">
         <v>-3.1231232639999997</v>
       </c>
-      <c r="R10" s="79">
+      <c r="R10" s="70">
         <v>-11.209859199999999</v>
       </c>
-      <c r="S10" s="80">
+      <c r="S10" s="71">
         <v>-9.319824800000001</v>
       </c>
-      <c r="T10" s="79">
+      <c r="T10" s="70">
         <v>-8.7341414400000001</v>
       </c>
-      <c r="U10" s="79">
+      <c r="U10" s="70">
         <v>-8.4734208000000013</v>
       </c>
-      <c r="V10" s="79">
+      <c r="V10" s="70">
         <v>-9.0600422400000014</v>
       </c>
-      <c r="W10" s="79">
+      <c r="W10" s="70">
         <v>-6.9735752</v>
       </c>
-      <c r="X10" s="80">
+      <c r="X10" s="71">
         <v>-5.6701031999999998</v>
       </c>
-      <c r="Y10" s="79">
+      <c r="Y10" s="70">
         <v>-5.0840524800000004</v>
       </c>
-      <c r="Z10" s="79">
+      <c r="Z10" s="70">
         <v>-4.8233318400000007</v>
       </c>
-      <c r="AA10" s="79">
+      <c r="AA10" s="70">
         <v>-5.4751334400000005</v>
       </c>
-      <c r="AB10" s="70"/>
+      <c r="AB10" s="87"/>
     </row>
     <row r="11" spans="1:28" ht="16" customHeight="1">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="79">
+      <c r="C11" s="70">
         <v>-5.4416379399999997</v>
       </c>
-      <c r="D11" s="80">
+      <c r="D11" s="71">
         <v>-8.4141104599999998</v>
       </c>
-      <c r="E11" s="79">
+      <c r="E11" s="70">
         <v>-7.8286936320000002</v>
       </c>
-      <c r="F11" s="79">
+      <c r="F11" s="70">
         <v>-7.8286936320000002</v>
       </c>
-      <c r="G11" s="79">
+      <c r="G11" s="70">
         <v>-8.0833334400000005</v>
       </c>
-      <c r="H11" s="79">
+      <c r="H11" s="70">
         <v>-4.6729471199999999</v>
       </c>
-      <c r="I11" s="80">
+      <c r="I11" s="71">
         <v>-7.5275508000000002</v>
       </c>
-      <c r="J11" s="79">
+      <c r="J11" s="70">
         <v>-7.0459752960000017</v>
       </c>
-      <c r="K11" s="79">
+      <c r="K11" s="70">
         <v>-7.0850833920000005</v>
       </c>
-      <c r="L11" s="79">
+      <c r="L11" s="70">
         <v>7.3001779200000003</v>
       </c>
-      <c r="M11" s="79">
+      <c r="M11" s="70">
         <v>-3.99776452</v>
       </c>
-      <c r="N11" s="80">
+      <c r="N11" s="71">
         <v>-6.8289215999999993</v>
       </c>
-      <c r="O11" s="79">
+      <c r="O11" s="70">
         <v>-6.345844992</v>
       </c>
-      <c r="P11" s="79">
+      <c r="P11" s="70">
         <v>-6.5023568640000002</v>
       </c>
-      <c r="Q11" s="79">
+      <c r="Q11" s="70">
         <v>-6.7228963200000003</v>
       </c>
-      <c r="R11" s="79">
+      <c r="R11" s="70">
         <v>-12.578504800000001</v>
       </c>
-      <c r="S11" s="80">
+      <c r="S11" s="71">
         <v>-16.163052800000003</v>
       </c>
-      <c r="T11" s="79">
+      <c r="T11" s="70">
         <v>-15.121797120000002</v>
       </c>
-      <c r="U11" s="79">
+      <c r="U11" s="70">
         <v>-14.339635200000002</v>
       </c>
-      <c r="V11" s="79">
+      <c r="V11" s="70">
         <v>-14.730716160000002</v>
       </c>
-      <c r="W11" s="79">
+      <c r="W11" s="70">
         <v>-7.8860055999999998</v>
       </c>
-      <c r="X11" s="80">
+      <c r="X11" s="71">
         <v>-8.6680888000000014</v>
       </c>
-      <c r="Y11" s="79">
+      <c r="Y11" s="70">
         <v>-8.0823398400000013</v>
       </c>
-      <c r="Z11" s="79">
+      <c r="Z11" s="70">
         <v>-7.2349977600000006</v>
       </c>
-      <c r="AA11" s="79">
+      <c r="AA11" s="70">
         <v>-7.4305382400000015</v>
       </c>
-      <c r="AB11" s="70"/>
+      <c r="AB11" s="87"/>
     </row>
     <row r="12" spans="1:28" ht="16" customHeight="1">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="79">
+      <c r="C12" s="70">
         <v>-1.5750551600000002</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="71">
         <v>-1.74085044</v>
       </c>
-      <c r="E12" s="79">
+      <c r="E12" s="70">
         <v>-2.7062881920000001</v>
       </c>
-      <c r="F12" s="79">
+      <c r="F12" s="70">
         <v>-2.6826007680000004</v>
       </c>
-      <c r="G12" s="79">
+      <c r="G12" s="70">
         <v>-2.6826007680000004</v>
       </c>
-      <c r="H12" s="79">
+      <c r="H12" s="70">
         <v>-4.6729471199999999</v>
       </c>
-      <c r="I12" s="80">
+      <c r="I12" s="71">
         <v>-1.5967532</v>
       </c>
-      <c r="J12" s="79">
+      <c r="J12" s="70">
         <v>-2.4181839360000001</v>
       </c>
-      <c r="K12" s="79">
+      <c r="K12" s="70">
         <v>-2.3790758400000005</v>
       </c>
-      <c r="L12" s="79">
+      <c r="L12" s="70">
         <v>-2.2617515520000002</v>
       </c>
-      <c r="M12" s="79">
+      <c r="M12" s="70">
         <v>-3.99776452</v>
       </c>
-      <c r="N12" s="80">
+      <c r="N12" s="71">
         <v>-1.3231035600000001</v>
       </c>
-      <c r="O12" s="79">
+      <c r="O12" s="70">
         <v>-2.048882688</v>
       </c>
-      <c r="P12" s="79">
+      <c r="P12" s="70">
         <v>-1.9279416960000002</v>
       </c>
-      <c r="Q12" s="79">
+      <c r="Q12" s="70">
         <v>-2.0133118080000001</v>
       </c>
-      <c r="R12" s="79">
+      <c r="R12" s="70">
         <v>-5.0183672000000001</v>
       </c>
-      <c r="S12" s="80">
+      <c r="S12" s="71">
         <v>-3.9104160000000001</v>
       </c>
-      <c r="T12" s="79">
+      <c r="T12" s="70">
         <v>-5.9965747200000008</v>
       </c>
-      <c r="U12" s="79">
+      <c r="U12" s="70">
         <v>-6.5180160000000003</v>
       </c>
-      <c r="V12" s="79">
+      <c r="V12" s="70">
         <v>-5.9313945600000011</v>
       </c>
-      <c r="W12" s="79">
+      <c r="W12" s="70">
         <v>-3.7800688</v>
       </c>
-      <c r="X12" s="80">
+      <c r="X12" s="71">
         <v>-2.2810760000000001</v>
       </c>
-      <c r="Y12" s="79">
+      <c r="Y12" s="70">
         <v>-3.5849088000000005</v>
       </c>
-      <c r="Z12" s="79">
+      <c r="Z12" s="70">
         <v>-4.1063500800000003</v>
       </c>
-      <c r="AA12" s="79">
+      <c r="AA12" s="70">
         <v>-3.6500889600000002</v>
       </c>
-      <c r="AB12" s="70"/>
+      <c r="AB12" s="87"/>
     </row>
     <row r="13" spans="1:28" ht="16" customHeight="1">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="79">
+      <c r="C13" s="70">
         <v>-1.43294492</v>
       </c>
-      <c r="D13" s="80">
+      <c r="D13" s="71">
         <v>-3.1145827600000002</v>
       </c>
-      <c r="E13" s="79">
+      <c r="E13" s="70">
         <v>-3.7307692800000001</v>
       </c>
-      <c r="F13" s="79">
+      <c r="F13" s="70">
         <v>-3.7544567040000003</v>
       </c>
-      <c r="G13" s="79">
+      <c r="G13" s="70">
         <v>-4.0327839359999995</v>
       </c>
-      <c r="H13" s="79">
+      <c r="H13" s="70">
         <v>-0.91894775999999989</v>
       </c>
-      <c r="I13" s="80">
+      <c r="I13" s="71">
         <v>-2.88067312</v>
       </c>
-      <c r="J13" s="79">
+      <c r="J13" s="70">
         <v>-3.2264179200000003</v>
       </c>
-      <c r="K13" s="79">
+      <c r="K13" s="70">
         <v>-3.4154403840000005</v>
       </c>
-      <c r="L13" s="79">
+      <c r="L13" s="70">
         <v>-3.4415124480000001</v>
       </c>
-      <c r="M13" s="79">
+      <c r="M13" s="70">
         <v>-0.47660182000000006</v>
       </c>
-      <c r="N13" s="80">
+      <c r="N13" s="71">
         <v>-2.7386821000000001</v>
       </c>
-      <c r="O13" s="79">
+      <c r="O13" s="70">
         <v>-2.8670129280000003</v>
       </c>
-      <c r="P13" s="79">
+      <c r="P13" s="70">
         <v>-2.9808397440000003</v>
       </c>
-      <c r="Q13" s="79">
+      <c r="Q13" s="70">
         <v>-3.0092964480000006</v>
       </c>
-      <c r="R13" s="79">
+      <c r="R13" s="70">
         <v>-6.1914920000000002</v>
       </c>
-      <c r="S13" s="80">
+      <c r="S13" s="71">
         <v>-4.88802</v>
       </c>
-      <c r="T13" s="79">
+      <c r="T13" s="70">
         <v>-7.9519795200000001</v>
       </c>
-      <c r="U13" s="79">
+      <c r="U13" s="70">
         <v>-7.6912588800000012</v>
       </c>
-      <c r="V13" s="79">
+      <c r="V13" s="70">
         <v>-9.0600422400000014</v>
       </c>
-      <c r="W13" s="79">
+      <c r="W13" s="70">
         <v>-5.2138879999999999</v>
       </c>
-      <c r="X13" s="80">
+      <c r="X13" s="71">
         <v>-2.0203816000000003</v>
       </c>
-      <c r="Y13" s="79">
+      <c r="Y13" s="70">
         <v>-4.6929715200000004</v>
       </c>
-      <c r="Z13" s="79">
+      <c r="Z13" s="70">
         <v>-4.2367104000000007</v>
       </c>
-      <c r="AA13" s="79">
+      <c r="AA13" s="70">
         <v>-5.6054937600000008</v>
       </c>
-      <c r="AB13" s="70"/>
+      <c r="AB13" s="87"/>
     </row>
     <row r="14" spans="1:28" ht="16" customHeight="1">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="79">
+      <c r="C14" s="70">
         <v>-8.6509608599999996</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D14" s="71">
         <v>-8.2127876200000003</v>
       </c>
-      <c r="E14" s="79">
+      <c r="E14" s="70">
         <v>-8.4919415039999997</v>
       </c>
-      <c r="F14" s="79">
+      <c r="F14" s="70">
         <v>-8.4564103680000002</v>
       </c>
-      <c r="G14" s="79">
+      <c r="G14" s="70">
         <v>-8.4090355199999998</v>
       </c>
-      <c r="H14" s="79">
+      <c r="H14" s="70">
         <v>-8.0945611199999998</v>
       </c>
-      <c r="I14" s="80">
+      <c r="I14" s="71">
         <v>-7.5666549600000002</v>
       </c>
-      <c r="J14" s="79">
+      <c r="J14" s="70">
         <v>-7.8672453120000005</v>
       </c>
-      <c r="K14" s="79">
+      <c r="K14" s="70">
         <v>-7.8216192000000015</v>
       </c>
-      <c r="L14" s="79">
+      <c r="L14" s="70">
         <v>-7.7694750720000005</v>
       </c>
-      <c r="M14" s="79">
+      <c r="M14" s="70">
         <v>-7.5473810599999993</v>
       </c>
-      <c r="N14" s="80">
+      <c r="N14" s="71">
         <v>-7.06366578</v>
       </c>
-      <c r="O14" s="79">
+      <c r="O14" s="70">
         <v>-7.2991445759999998</v>
       </c>
-      <c r="P14" s="79">
+      <c r="P14" s="70">
         <v>-7.2920304000000007</v>
       </c>
-      <c r="Q14" s="79">
+      <c r="Q14" s="70">
         <v>-7.2280028160000001</v>
       </c>
-      <c r="R14" s="79">
+      <c r="R14" s="70">
         <v>-14.077497600000001</v>
       </c>
-      <c r="S14" s="80">
+      <c r="S14" s="71">
         <v>-13.881976800000002</v>
       </c>
-      <c r="T14" s="79">
+      <c r="T14" s="70">
         <v>-14.404815360000001</v>
       </c>
-      <c r="U14" s="79">
+      <c r="U14" s="70">
         <v>-14.209274880000002</v>
       </c>
-      <c r="V14" s="79">
+      <c r="V14" s="70">
         <v>-14.209274880000002</v>
       </c>
-      <c r="W14" s="79">
+      <c r="W14" s="70">
         <v>-5.9959711999999996</v>
       </c>
-      <c r="X14" s="80">
+      <c r="X14" s="71">
         <v>-6.3218392000000003</v>
       </c>
-      <c r="Y14" s="79">
+      <c r="Y14" s="70">
         <v>-6.5180160000000003</v>
       </c>
-      <c r="Z14" s="79">
+      <c r="Z14" s="70">
         <v>-6.3876556800000008</v>
       </c>
-      <c r="AA14" s="79">
+      <c r="AA14" s="70">
         <v>-6.4528358400000005</v>
       </c>
-      <c r="AB14" s="70"/>
+      <c r="AB14" s="87"/>
     </row>
     <row r="15" spans="1:28" ht="16" customHeight="1">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="79">
+      <c r="C15" s="70">
         <v>-4.7606930399999996</v>
       </c>
-      <c r="D15" s="80">
+      <c r="D15" s="71">
         <v>-9.1779530000000005</v>
       </c>
-      <c r="E15" s="79">
+      <c r="E15" s="70">
         <v>-8.9242369920000009</v>
       </c>
-      <c r="F15" s="79">
+      <c r="F15" s="70">
         <v>-8.9834555520000006</v>
       </c>
-      <c r="G15" s="79">
+      <c r="G15" s="70">
         <v>-9.2499390720000001</v>
       </c>
-      <c r="H15" s="79">
+      <c r="H15" s="70">
         <v>-3.8126555999999998</v>
       </c>
-      <c r="I15" s="80">
+      <c r="I15" s="71">
         <v>-8.3226687199999994</v>
       </c>
-      <c r="J15" s="79">
+      <c r="J15" s="70">
         <v>-8.0627857919999997</v>
       </c>
-      <c r="K15" s="79">
+      <c r="K15" s="70">
         <v>-8.1996641280000002</v>
       </c>
-      <c r="L15" s="79">
+      <c r="L15" s="70">
         <v>-8.4799388160000007</v>
       </c>
-      <c r="M15" s="79">
+      <c r="M15" s="70">
         <v>-3.1370358600000001</v>
       </c>
-      <c r="N15" s="80">
+      <c r="N15" s="71">
         <v>-7.7181040999999997</v>
       </c>
-      <c r="O15" s="79">
+      <c r="O15" s="70">
         <v>-7.220888640000001</v>
       </c>
-      <c r="P15" s="79">
+      <c r="P15" s="70">
         <v>-7.4769989760000009</v>
       </c>
-      <c r="Q15" s="79">
+      <c r="Q15" s="70">
         <v>-7.6335108480000011</v>
       </c>
-      <c r="R15" s="79">
+      <c r="R15" s="70">
         <v>-12.708852</v>
       </c>
-      <c r="S15" s="80">
+      <c r="S15" s="71">
         <v>-16.293400000000002</v>
       </c>
-      <c r="T15" s="79">
+      <c r="T15" s="70">
         <v>-17.337922560000003</v>
       </c>
-      <c r="U15" s="79">
+      <c r="U15" s="70">
         <v>-16.425400320000001</v>
       </c>
-      <c r="V15" s="79">
+      <c r="V15" s="70">
         <v>-17.337922560000003</v>
       </c>
-      <c r="W15" s="79">
+      <c r="W15" s="70">
         <v>-8.8636096000000002</v>
       </c>
-      <c r="X15" s="80">
+      <c r="X15" s="71">
         <v>-8.0163527999999999</v>
       </c>
-      <c r="Y15" s="79">
+      <c r="Y15" s="70">
         <v>-9.320762880000002</v>
       </c>
-      <c r="Z15" s="79">
+      <c r="Z15" s="70">
         <v>-8.2778803199999995</v>
       </c>
-      <c r="AA15" s="79">
+      <c r="AA15" s="70">
         <v>-8.8645017600000013</v>
       </c>
-      <c r="AB15" s="70"/>
+      <c r="AB15" s="87"/>
     </row>
     <row r="16" spans="1:28" ht="16" customHeight="1">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="83">
+      <c r="C16" s="74">
         <v>-8.4437167599999992</v>
       </c>
-      <c r="D16" s="84">
+      <c r="D16" s="75">
         <v>-8.727937240000001</v>
       </c>
-      <c r="E16" s="83">
+      <c r="E16" s="74">
         <v>-8.6281441920000006</v>
       </c>
-      <c r="F16" s="83">
+      <c r="F16" s="74">
         <v>-8.746581312</v>
       </c>
-      <c r="G16" s="83">
+      <c r="G16" s="74">
         <v>-8.6340660480000011</v>
       </c>
-      <c r="H16" s="83">
+      <c r="H16" s="74">
         <v>-7.7230715999999999</v>
       </c>
-      <c r="I16" s="84">
+      <c r="I16" s="75">
         <v>-8.0880437599999997</v>
       </c>
-      <c r="J16" s="83">
+      <c r="J16" s="74">
         <v>-8.0367137280000005</v>
       </c>
-      <c r="K16" s="83">
+      <c r="K16" s="74">
         <v>-7.9780515840000001</v>
       </c>
-      <c r="L16" s="83">
+      <c r="L16" s="74">
         <v>-8.0627857919999997</v>
       </c>
-      <c r="M16" s="83">
+      <c r="M16" s="74">
         <v>-7.17036768</v>
       </c>
-      <c r="N16" s="84">
+      <c r="N16" s="75">
         <v>-7.6967637199999999</v>
       </c>
-      <c r="O16" s="83">
+      <c r="O16" s="74">
         <v>-7.4129713920000002</v>
       </c>
-      <c r="P16" s="83">
+      <c r="P16" s="74">
         <v>-7.448542272000001</v>
       </c>
-      <c r="Q16" s="83">
+      <c r="Q16" s="74">
         <v>-7.2920304000000007</v>
       </c>
-      <c r="R16" s="83">
+      <c r="R16" s="74">
         <v>-14.729233600000001</v>
       </c>
-      <c r="S16" s="84">
+      <c r="S16" s="75">
         <v>-13.751629600000001</v>
       </c>
-      <c r="T16" s="83">
+      <c r="T16" s="74">
         <v>-14.665536000000001</v>
       </c>
-      <c r="U16" s="83">
+      <c r="U16" s="74">
         <v>-15.056616960000001</v>
       </c>
-      <c r="V16" s="83">
+      <c r="V16" s="74">
         <v>-15.382517760000002</v>
       </c>
-      <c r="W16" s="83">
+      <c r="W16" s="74">
         <v>-6.9735752</v>
       </c>
-      <c r="X16" s="84">
+      <c r="X16" s="75">
         <v>-5.6701031999999998</v>
       </c>
-      <c r="Y16" s="83">
+      <c r="Y16" s="74">
         <v>-6.6483763199999997</v>
       </c>
-      <c r="Z16" s="83">
+      <c r="Z16" s="74">
         <v>-7.1046374400000012</v>
       </c>
-      <c r="AA16" s="83">
+      <c r="AA16" s="74">
         <v>-7.3001779200000003</v>
       </c>
-      <c r="AB16" s="70"/>
+      <c r="AB16" s="87"/>
     </row>
     <row r="17" spans="1:28" ht="19">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="83">
+      <c r="C17" s="74">
         <v>-9.0180789800000003</v>
       </c>
-      <c r="D17" s="84">
+      <c r="D17" s="75">
         <v>-9.3911183600000001</v>
       </c>
-      <c r="E17" s="83">
+      <c r="E17" s="74">
         <v>-9.9783273600000015</v>
       </c>
-      <c r="F17" s="83">
+      <c r="F17" s="74">
         <v>-9.9072650880000008</v>
       </c>
-      <c r="G17" s="83">
+      <c r="G17" s="74">
         <v>-9.8125153919999999</v>
       </c>
-      <c r="H17" s="83">
+      <c r="H17" s="74">
         <v>-8.3096340000000009</v>
       </c>
-      <c r="I17" s="84">
+      <c r="I17" s="75">
         <v>-9.0265436000000001</v>
       </c>
-      <c r="J17" s="83">
+      <c r="J17" s="74">
         <v>-9.1773665280000003</v>
       </c>
-      <c r="K17" s="83">
+      <c r="K17" s="74">
         <v>-9.2229926400000011</v>
       </c>
-      <c r="L17" s="83">
+      <c r="L17" s="74">
         <v>-9.320762880000002</v>
       </c>
-      <c r="M17" s="83">
+      <c r="M17" s="74">
         <v>-7.7394444800000013</v>
       </c>
-      <c r="N17" s="84">
+      <c r="N17" s="75">
         <v>-8.25872706</v>
       </c>
-      <c r="O17" s="83">
+      <c r="O17" s="74">
         <v>-8.537011200000002</v>
       </c>
-      <c r="P17" s="83">
+      <c r="P17" s="74">
         <v>-8.593924608</v>
       </c>
-      <c r="Q17" s="83">
+      <c r="Q17" s="74">
         <v>-8.4943261440000004</v>
       </c>
-      <c r="R17" s="83">
+      <c r="R17" s="74">
         <v>-15.315796000000001</v>
       </c>
-      <c r="S17" s="84">
+      <c r="S17" s="75">
         <v>-15.185448800000001</v>
       </c>
-      <c r="T17" s="83">
+      <c r="T17" s="74">
         <v>-17.012021760000003</v>
       </c>
-      <c r="U17" s="83">
+      <c r="U17" s="74">
         <v>-16.425400320000001</v>
       </c>
-      <c r="V17" s="83">
+      <c r="V17" s="74">
         <v>-16.490580480000002</v>
       </c>
-      <c r="W17" s="83">
+      <c r="W17" s="74">
         <v>-7.0387488000000005</v>
       </c>
-      <c r="X17" s="84">
+      <c r="X17" s="75">
         <v>-6.1914920000000002</v>
       </c>
-      <c r="Y17" s="83">
+      <c r="Y17" s="74">
         <v>-7.8216192000000015</v>
       </c>
-      <c r="Z17" s="83">
+      <c r="Z17" s="74">
         <v>-7.1698176000000009</v>
       </c>
-      <c r="AA17" s="83">
+      <c r="AA17" s="74">
         <v>-7.1698176000000009</v>
       </c>
-      <c r="AB17" s="70"/>
+      <c r="AB17" s="87"/>
     </row>
     <row r="18" spans="1:28" ht="19">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="83">
+      <c r="C18" s="74">
         <v>-9.4444096999999996</v>
       </c>
-      <c r="D18" s="84">
+      <c r="D18" s="75">
         <v>-9.6575750599999992</v>
       </c>
-      <c r="E18" s="83">
+      <c r="E18" s="74">
         <v>-9.9368743680000016</v>
       </c>
-      <c r="F18" s="83">
+      <c r="F18" s="74">
         <v>-9.9013432320000003</v>
       </c>
-      <c r="G18" s="83">
+      <c r="G18" s="74">
         <v>-9.7592186880000025</v>
       </c>
-      <c r="H18" s="83">
+      <c r="H18" s="74">
         <v>-8.642019359999999</v>
       </c>
-      <c r="I18" s="84">
+      <c r="I18" s="75">
         <v>-8.8831616800000006</v>
       </c>
-      <c r="J18" s="83">
+      <c r="J18" s="74">
         <v>-9.2164746240000017</v>
       </c>
-      <c r="K18" s="83">
+      <c r="K18" s="74">
         <v>-9.144776448</v>
       </c>
-      <c r="L18" s="83">
+      <c r="L18" s="74">
         <v>-9.1252224000000002</v>
       </c>
-      <c r="M18" s="83">
+      <c r="M18" s="74">
         <v>-8.0026425000000003</v>
       </c>
-      <c r="N18" s="84">
+      <c r="N18" s="75">
         <v>-8.2871808999999992</v>
       </c>
-      <c r="O18" s="83">
+      <c r="O18" s="74">
         <v>-8.4800977920000005</v>
       </c>
-      <c r="P18" s="83">
+      <c r="P18" s="74">
         <v>-8.5725820800000019</v>
       </c>
-      <c r="Q18" s="83">
+      <c r="Q18" s="74">
         <v>-8.5512395520000002</v>
       </c>
-      <c r="R18" s="83">
+      <c r="R18" s="74">
         <v>-16.554094399999997</v>
       </c>
-      <c r="S18" s="84">
+      <c r="S18" s="75">
         <v>-16.358573600000003</v>
       </c>
-      <c r="T18" s="83">
+      <c r="T18" s="74">
         <v>-17.207562240000001</v>
       </c>
-      <c r="U18" s="83">
+      <c r="U18" s="74">
         <v>-16.425400320000001</v>
       </c>
-      <c r="V18" s="83">
+      <c r="V18" s="74">
         <v>-15.708418560000002</v>
       </c>
-      <c r="W18" s="83">
+      <c r="W18" s="74">
         <v>-7.8860055999999998</v>
       </c>
-      <c r="X18" s="84">
+      <c r="X18" s="75">
         <v>-7.4949640000000004</v>
       </c>
-      <c r="Y18" s="83">
+      <c r="Y18" s="74">
         <v>-7.9519795200000001</v>
       </c>
-      <c r="Z18" s="83">
+      <c r="Z18" s="74">
         <v>-7.3001779200000003</v>
       </c>
-      <c r="AA18" s="83">
+      <c r="AA18" s="74">
         <v>-6.58319616</v>
       </c>
-      <c r="AB18" s="70"/>
+      <c r="AB18" s="87"/>
     </row>
     <row r="19" spans="1:28" ht="18">
       <c r="A19" s="1"/>
@@ -8943,13 +9016,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="R3:AA3"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="AB1:AB18"/>
     <mergeCell ref="C1:AA1"/>
-    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8957,283 +9030,286 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:XFD80"/>
+  <dimension ref="A1:XFC80"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="68" style="22" customWidth="1"/>
     <col min="2" max="9" width="22.83203125" style="22" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="22"/>
+    <col min="10" max="11" width="22" style="22" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="22" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" style="22" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="35" t="s">
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="94" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="36">
         <v>15.2</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="35"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="94"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40">
+      <c r="A3" s="92"/>
+      <c r="B3" s="36">
         <v>15.3</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="35"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="94"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40">
+      <c r="A4" s="92"/>
+      <c r="B4" s="36">
         <v>12</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="35"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="94"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="36">
         <v>13.85</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="35"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="94"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="36">
         <v>11.7</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="35"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="94"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40">
+      <c r="A7" s="92"/>
+      <c r="B7" s="36">
         <v>13.57</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="40">
         <v>13.9</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="41">
         <v>11.7</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="41">
         <v>14.6</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="41">
         <v>14.35</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="41">
         <v>14.1</v>
       </c>
-      <c r="I7" s="35"/>
+      <c r="I7" s="94"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40">
+      <c r="A8" s="92"/>
+      <c r="B8" s="36">
         <v>14.6</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="35"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="94"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="36">
         <v>11.4</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="35"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="94"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40">
+      <c r="A10" s="92"/>
+      <c r="B10" s="36">
         <v>13.57</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="40">
         <v>14</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="41">
         <v>11.4</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="41">
         <v>16.100000000000001</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="41">
         <v>14.1</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="35"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="94"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40">
+      <c r="A11" s="92"/>
+      <c r="B11" s="36">
         <v>17.2</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="35"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="94"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="92" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="36">
         <v>14.34</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="35"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="94"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40">
+      <c r="A13" s="92"/>
+      <c r="B13" s="36">
         <v>12.9</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="35"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="94"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="36">
         <v>12.68</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="35"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="94"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="40">
+      <c r="B15" s="36">
         <v>12.85</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="37">
         <v>16.8</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="35"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="94"/>
     </row>
     <row r="16" spans="1:9" s="33" customFormat="1">
       <c r="A16" s="31"/>
@@ -9245,8 +9321,8 @@
       <c r="H16" s="32"/>
       <c r="I16" s="32"/>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="46" t="s">
+    <row r="17" spans="1:13">
+      <c r="A17" s="42" t="s">
         <v>155</v>
       </c>
       <c r="B17" s="21"/>
@@ -9256,9 +9332,9 @@
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="I17" s="98"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -9269,770 +9345,837 @@
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="38" t="s">
+    <row r="19" spans="1:13">
+      <c r="A19" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="47" t="s">
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="99" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="47"/>
-      <c r="B21" s="48" t="s">
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="100" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" s="99"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="93"/>
+      <c r="B21" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="D21" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="F21" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="48" t="s">
+      <c r="G21" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="H21" s="48" t="s">
+      <c r="H21" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="I21" s="48" t="s">
+      <c r="I21" s="97" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="48">
+      <c r="J21" s="100"/>
+      <c r="K21" s="101" t="s">
+        <v>186</v>
+      </c>
+      <c r="L21" s="101" t="s">
+        <v>187</v>
+      </c>
+      <c r="M21" s="103" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="43">
         <v>278.14999999999998</v>
       </c>
-      <c r="B22" s="48">
+      <c r="B22" s="43">
         <v>14.5</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="43">
         <v>11.7</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D22" s="43">
         <v>16.3</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="43">
         <v>12.4</v>
       </c>
-      <c r="F22" s="48">
+      <c r="F22" s="43">
         <v>14.4</v>
       </c>
-      <c r="G22" s="48">
+      <c r="G22" s="43">
         <v>16.7</v>
       </c>
-      <c r="H22" s="48">
+      <c r="H22" s="43">
         <v>11</v>
       </c>
-      <c r="I22" s="48">
+      <c r="I22" s="97">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="48">
+      <c r="J22" s="102">
+        <v>288</v>
+      </c>
+      <c r="K22" s="102">
+        <v>11.6</v>
+      </c>
+      <c r="L22" s="102">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="43">
         <v>288.14999999999998</v>
       </c>
-      <c r="B23" s="48">
+      <c r="B23" s="43">
         <v>14</v>
       </c>
-      <c r="C23" s="48">
+      <c r="C23" s="43">
         <v>11.3</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="43">
         <v>15.6</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E23" s="43">
         <v>11.7</v>
       </c>
-      <c r="F23" s="48">
+      <c r="F23" s="43">
         <v>14.1</v>
       </c>
-      <c r="G23" s="48">
+      <c r="G23" s="43">
         <v>16.100000000000001</v>
       </c>
-      <c r="H23" s="48">
+      <c r="H23" s="43">
         <v>12.3</v>
       </c>
-      <c r="I23" s="48">
+      <c r="I23" s="97">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="48">
+      <c r="J23" s="102">
+        <v>298</v>
+      </c>
+      <c r="K23" s="102">
+        <v>11.6</v>
+      </c>
+      <c r="L23" s="102">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="43">
         <v>298.14999999999998</v>
       </c>
-      <c r="B24" s="48">
+      <c r="B24" s="43">
         <v>13.8</v>
       </c>
-      <c r="C24" s="48">
+      <c r="C24" s="43">
         <v>11</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="43">
         <v>14.5</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="43">
         <v>11.3</v>
       </c>
-      <c r="F24" s="48">
+      <c r="F24" s="43">
         <v>14.6</v>
       </c>
-      <c r="G24" s="48">
+      <c r="G24" s="43">
         <v>17.2</v>
       </c>
-      <c r="H24" s="48">
+      <c r="H24" s="43">
         <v>12</v>
       </c>
-      <c r="I24" s="48">
+      <c r="I24" s="97">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="48">
+      <c r="J24" s="102">
+        <v>308</v>
+      </c>
+      <c r="K24" s="102">
+        <v>11.5</v>
+      </c>
+      <c r="L24" s="102">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="43">
         <v>308.14999999999998</v>
       </c>
-      <c r="B25" s="48">
+      <c r="B25" s="43">
         <v>13.6</v>
       </c>
-      <c r="C25" s="48">
+      <c r="C25" s="43">
         <v>10.5</v>
       </c>
-      <c r="D25" s="48">
+      <c r="D25" s="43">
         <v>13.6</v>
       </c>
-      <c r="E25" s="48">
+      <c r="E25" s="43">
         <v>11</v>
       </c>
-      <c r="F25" s="48">
+      <c r="F25" s="43">
         <v>13.8</v>
       </c>
-      <c r="G25" s="48">
+      <c r="G25" s="43">
         <v>16.8</v>
       </c>
-      <c r="H25" s="48">
+      <c r="H25" s="43">
         <v>12.2</v>
       </c>
-      <c r="I25" s="48">
+      <c r="I25" s="97">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="48">
+      <c r="J25" s="102">
+        <v>318</v>
+      </c>
+      <c r="K25" s="102">
+        <v>11.7</v>
+      </c>
+      <c r="L25" s="102">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="43">
         <v>318.14999999999998</v>
       </c>
-      <c r="B26" s="48">
+      <c r="B26" s="43">
         <v>13</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="43">
         <v>10</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="43">
         <v>13</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="43">
         <v>11.1</v>
       </c>
-      <c r="F26" s="48">
+      <c r="F26" s="43">
         <v>13.3</v>
       </c>
-      <c r="G26" s="48">
+      <c r="G26" s="43">
         <v>13.9</v>
       </c>
-      <c r="H26" s="48">
+      <c r="H26" s="43">
         <v>12.8</v>
       </c>
-      <c r="I26" s="48">
+      <c r="I26" s="97">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="48">
+      <c r="J26" s="102"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="102"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="43">
         <v>328.15</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48">
+      <c r="B27" s="43"/>
+      <c r="C27" s="43">
         <v>10.1</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="43">
         <v>12.6</v>
       </c>
-      <c r="E27" s="48">
+      <c r="E27" s="43">
         <v>10.8</v>
       </c>
-      <c r="F27" s="48">
+      <c r="F27" s="43">
         <v>12.5</v>
       </c>
-      <c r="G27" s="48">
+      <c r="G27" s="43">
         <v>13</v>
       </c>
-      <c r="H27" s="48">
+      <c r="H27" s="43">
         <v>12.5</v>
       </c>
-      <c r="I27" s="48">
+      <c r="I27" s="97">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="48">
+      <c r="J27" s="102"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="43">
         <v>338.15</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48">
+      <c r="B28" s="43"/>
+      <c r="C28" s="43">
         <v>10</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="43">
         <v>12.1</v>
       </c>
-      <c r="E28" s="48">
+      <c r="E28" s="43">
         <v>11</v>
       </c>
-      <c r="F28" s="48">
+      <c r="F28" s="43">
         <v>12.5</v>
       </c>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48">
+      <c r="G28" s="43"/>
+      <c r="H28" s="43">
         <v>12.6</v>
       </c>
-      <c r="I28" s="48">
+      <c r="I28" s="97">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="38" t="s">
+      <c r="J28" s="102"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="91" t="s">
         <v>179</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38" t="s">
+      <c r="B31" s="91"/>
+      <c r="C31" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="49" t="s">
+      <c r="D31" s="91"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="91"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="D32" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="E32" s="50" t="s">
+      <c r="E32" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="52" t="s">
+      <c r="F32" s="47" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="56">
+      <c r="C33" s="50"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="51">
         <v>13.8</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="56">
+      <c r="C34" s="50"/>
+      <c r="D34" s="51">
         <v>17.89</v>
       </c>
-      <c r="E34" s="55"/>
-      <c r="F34" s="56">
+      <c r="E34" s="50"/>
+      <c r="F34" s="51">
         <v>16.600000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="56">
+      <c r="C35" s="50"/>
+      <c r="D35" s="51">
         <v>27.1</v>
       </c>
-      <c r="E35" s="55"/>
-      <c r="F35" s="56">
+      <c r="E35" s="50"/>
+      <c r="F35" s="51">
         <v>29.6</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="C36" s="59">
+      <c r="C36" s="54">
         <v>15.2</v>
       </c>
-      <c r="D36" s="59">
+      <c r="D36" s="54">
         <v>15.3</v>
       </c>
-      <c r="E36" s="60"/>
-      <c r="F36" s="59">
+      <c r="E36" s="55"/>
+      <c r="F36" s="54">
         <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="33" customFormat="1">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="C37" s="56">
+      <c r="C37" s="51">
         <v>12.8</v>
       </c>
-      <c r="D37" s="56">
+      <c r="D37" s="51">
         <v>13.08</v>
       </c>
-      <c r="E37" s="56">
+      <c r="E37" s="51">
         <v>14.5</v>
       </c>
-      <c r="F37" s="56"/>
+      <c r="F37" s="51"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="56">
+      <c r="C38" s="50"/>
+      <c r="D38" s="51">
         <v>14.09</v>
       </c>
-      <c r="E38" s="55"/>
-      <c r="F38" s="56">
+      <c r="E38" s="50"/>
+      <c r="F38" s="51">
         <v>16.5</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="56">
+      <c r="C39" s="50"/>
+      <c r="D39" s="51">
         <v>22.8</v>
       </c>
-      <c r="E39" s="55"/>
-      <c r="F39" s="56">
+      <c r="E39" s="50"/>
+      <c r="F39" s="51">
         <v>16.899999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="20">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="62" t="s">
+      <c r="B40" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="56">
+      <c r="C40" s="50"/>
+      <c r="D40" s="51">
         <v>17.12</v>
       </c>
-      <c r="E40" s="55"/>
-      <c r="F40" s="56">
+      <c r="E40" s="50"/>
+      <c r="F40" s="51">
         <v>18.399999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="55"/>
-      <c r="D41" s="56">
+      <c r="C41" s="50"/>
+      <c r="D41" s="51">
         <v>32.299999999999997</v>
       </c>
-      <c r="E41" s="55"/>
-      <c r="F41" s="56">
+      <c r="E41" s="50"/>
+      <c r="F41" s="51">
         <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="C42" s="55"/>
-      <c r="D42" s="56">
+      <c r="C42" s="50"/>
+      <c r="D42" s="51">
         <v>28.93</v>
       </c>
-      <c r="E42" s="55"/>
-      <c r="F42" s="56">
+      <c r="E42" s="50"/>
+      <c r="F42" s="51">
         <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="C43" s="55"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="56">
+      <c r="C43" s="50"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="51">
         <v>13.3</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="58" t="s">
+      <c r="A44" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59">
+      <c r="C44" s="54"/>
+      <c r="D44" s="54">
         <v>12.68</v>
       </c>
-      <c r="E44" s="60"/>
-      <c r="F44" s="59"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="54"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="58" t="s">
+      <c r="A45" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59">
+      <c r="C45" s="54"/>
+      <c r="D45" s="54">
         <v>14.34</v>
       </c>
-      <c r="E45" s="60"/>
-      <c r="F45" s="59">
+      <c r="E45" s="55"/>
+      <c r="F45" s="54">
         <v>12.9</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="53" t="s">
+      <c r="A46" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="56">
+      <c r="C46" s="50"/>
+      <c r="D46" s="51">
         <v>17.79</v>
       </c>
-      <c r="E46" s="55"/>
-      <c r="F46" s="56">
+      <c r="E46" s="50"/>
+      <c r="F46" s="51">
         <v>13.7</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="58" t="s">
+      <c r="A47" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="C47" s="59">
+      <c r="C47" s="54">
         <v>11.7</v>
       </c>
-      <c r="D47" s="59">
+      <c r="D47" s="54">
         <v>13.57</v>
       </c>
-      <c r="E47" s="59">
+      <c r="E47" s="54">
         <v>14.6</v>
       </c>
-      <c r="F47" s="60">
+      <c r="F47" s="55">
         <v>13.9</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="58" t="s">
+      <c r="A48" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="59">
+      <c r="C48" s="54">
         <v>11.4</v>
       </c>
-      <c r="D48" s="59">
+      <c r="D48" s="54">
         <v>13.57</v>
       </c>
-      <c r="E48" s="59">
+      <c r="E48" s="54">
         <v>17.2</v>
       </c>
-      <c r="F48" s="60">
+      <c r="F48" s="55">
         <v>14</v>
       </c>
       <c r="H48" s="24"/>
     </row>
-    <row r="49" spans="1:16384">
-      <c r="A49" s="58" t="s">
+    <row r="49" spans="1:16383">
+      <c r="A49" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="63"/>
-      <c r="D49" s="59">
+      <c r="C49" s="58"/>
+      <c r="D49" s="54">
         <v>13.85</v>
       </c>
-      <c r="E49" s="59"/>
-      <c r="F49" s="60">
+      <c r="E49" s="54"/>
+      <c r="F49" s="55">
         <v>14</v>
       </c>
       <c r="H49" s="24"/>
     </row>
-    <row r="50" spans="1:16384">
-      <c r="A50" s="53" t="s">
+    <row r="50" spans="1:16383">
+      <c r="A50" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="C50" s="64"/>
-      <c r="D50" s="56">
+      <c r="C50" s="59"/>
+      <c r="D50" s="51">
         <v>14.17</v>
       </c>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56">
+      <c r="E50" s="51"/>
+      <c r="F50" s="51">
         <v>15</v>
       </c>
       <c r="H50" s="24"/>
     </row>
-    <row r="51" spans="1:16384">
-      <c r="A51" s="53" t="s">
+    <row r="51" spans="1:16383">
+      <c r="A51" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="B51" s="61" t="s">
+      <c r="B51" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="64"/>
-      <c r="D51" s="56">
+      <c r="C51" s="59"/>
+      <c r="D51" s="51">
         <v>12.98</v>
       </c>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56">
+      <c r="E51" s="51"/>
+      <c r="F51" s="51">
         <v>12.8</v>
       </c>
       <c r="H51" s="24"/>
     </row>
-    <row r="52" spans="1:16384">
-      <c r="A52" s="53" t="s">
+    <row r="52" spans="1:16383">
+      <c r="A52" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="B52" s="61" t="s">
+      <c r="B52" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="C52" s="64"/>
-      <c r="D52" s="56">
+      <c r="C52" s="59"/>
+      <c r="D52" s="51">
         <v>12.64</v>
       </c>
-      <c r="E52" s="65"/>
-      <c r="F52" s="56">
+      <c r="E52" s="60"/>
+      <c r="F52" s="51">
         <v>9.4</v>
       </c>
       <c r="H52" s="24"/>
     </row>
-    <row r="53" spans="1:16384">
-      <c r="A53" s="53" t="s">
+    <row r="53" spans="1:16383">
+      <c r="A53" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="61" t="s">
+      <c r="B53" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="C53" s="64"/>
-      <c r="D53" s="56">
+      <c r="C53" s="59"/>
+      <c r="D53" s="51">
         <v>12.21</v>
       </c>
-      <c r="E53" s="65"/>
-      <c r="F53" s="56">
+      <c r="E53" s="60"/>
+      <c r="F53" s="51">
         <v>13.3</v>
       </c>
       <c r="H53" s="24"/>
     </row>
-    <row r="54" spans="1:16384">
-      <c r="A54" s="53" t="s">
+    <row r="54" spans="1:16383">
+      <c r="A54" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="B54" s="53" t="s">
+      <c r="B54" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="C54" s="64"/>
-      <c r="D54" s="56">
+      <c r="C54" s="59"/>
+      <c r="D54" s="51">
         <v>12.97</v>
       </c>
-      <c r="E54" s="65"/>
-      <c r="F54" s="56">
+      <c r="E54" s="60"/>
+      <c r="F54" s="51">
         <v>14</v>
       </c>
       <c r="H54" s="24"/>
     </row>
-    <row r="55" spans="1:16384">
-      <c r="A55" s="53" t="s">
+    <row r="55" spans="1:16383">
+      <c r="A55" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="B55" s="61" t="s">
+      <c r="B55" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="C55" s="64"/>
-      <c r="D55" s="56">
+      <c r="C55" s="59"/>
+      <c r="D55" s="51">
         <v>12.51</v>
       </c>
-      <c r="E55" s="65"/>
-      <c r="F55" s="56">
+      <c r="E55" s="60"/>
+      <c r="F55" s="51">
         <v>12</v>
       </c>
       <c r="H55" s="24"/>
     </row>
-    <row r="56" spans="1:16384">
-      <c r="A56" s="53" t="s">
+    <row r="56" spans="1:16383">
+      <c r="A56" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="B56" s="61" t="s">
+      <c r="B56" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="C56" s="64"/>
-      <c r="D56" s="56">
+      <c r="C56" s="59"/>
+      <c r="D56" s="51">
         <v>12.35</v>
       </c>
-      <c r="E56" s="65"/>
-      <c r="F56" s="56">
+      <c r="E56" s="60"/>
+      <c r="F56" s="51">
         <v>15</v>
       </c>
       <c r="H56" s="24"/>
     </row>
-    <row r="57" spans="1:16384">
-      <c r="A57" s="53" t="s">
+    <row r="57" spans="1:16383">
+      <c r="A57" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="53" t="s">
+      <c r="B57" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="C57" s="64"/>
-      <c r="D57" s="56">
+      <c r="C57" s="59"/>
+      <c r="D57" s="51">
         <v>13.05</v>
       </c>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56">
+      <c r="E57" s="51"/>
+      <c r="F57" s="51">
         <v>15.3</v>
       </c>
       <c r="H57" s="24"/>
     </row>
-    <row r="58" spans="1:16384">
-      <c r="A58" s="53" t="s">
+    <row r="58" spans="1:16383">
+      <c r="A58" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="B58" s="53" t="s">
+      <c r="B58" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="C58" s="64"/>
-      <c r="D58" s="56">
+      <c r="C58" s="59"/>
+      <c r="D58" s="51">
         <v>12.41</v>
       </c>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56">
+      <c r="E58" s="51"/>
+      <c r="F58" s="51">
         <v>14.7</v>
       </c>
       <c r="H58" s="24"/>
     </row>
-    <row r="59" spans="1:16384">
-      <c r="A59" s="53" t="s">
+    <row r="59" spans="1:16383">
+      <c r="A59" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="B59" s="61" t="s">
+      <c r="B59" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="C59" s="64"/>
-      <c r="D59" s="56">
+      <c r="C59" s="59"/>
+      <c r="D59" s="51">
         <v>12.72</v>
       </c>
-      <c r="E59" s="56"/>
-      <c r="F59" s="56">
+      <c r="E59" s="51"/>
+      <c r="F59" s="51">
         <v>18</v>
       </c>
       <c r="H59" s="24"/>
     </row>
-    <row r="60" spans="1:16384">
-      <c r="A60" s="53" t="s">
+    <row r="60" spans="1:16383">
+      <c r="A60" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="B60" s="61" t="s">
+      <c r="B60" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="C60" s="64"/>
-      <c r="D60" s="56">
+      <c r="C60" s="59"/>
+      <c r="D60" s="51">
         <v>11.82</v>
       </c>
-      <c r="E60" s="56"/>
-      <c r="F60" s="56">
+      <c r="E60" s="51"/>
+      <c r="F60" s="51">
         <v>12.5</v>
       </c>
       <c r="H60" s="24"/>
     </row>
-    <row r="61" spans="1:16384" s="26" customFormat="1">
-      <c r="A61" s="66" t="s">
+    <row r="61" spans="1:16383" s="26" customFormat="1">
+      <c r="A61" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="B61" s="66" t="s">
+      <c r="B61" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="C61" s="67"/>
-      <c r="D61" s="68">
+      <c r="C61" s="62"/>
+      <c r="D61" s="63">
         <v>12.85</v>
       </c>
-      <c r="E61" s="69"/>
-      <c r="F61" s="69"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="64"/>
       <c r="H61" s="27"/>
       <c r="I61" s="28"/>
       <c r="J61" s="28"/>
@@ -26409,259 +26552,258 @@
       <c r="XFA61" s="28"/>
       <c r="XFB61" s="28"/>
       <c r="XFC61" s="29"/>
-      <c r="XFD61" s="27"/>
-    </row>
-    <row r="62" spans="1:16384">
-      <c r="A62" s="53" t="s">
+    </row>
+    <row r="62" spans="1:16383">
+      <c r="A62" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="57" t="s">
+      <c r="B62" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="64"/>
-      <c r="D62" s="56">
+      <c r="C62" s="59"/>
+      <c r="D62" s="51">
         <v>17.489999999999998</v>
       </c>
-      <c r="E62" s="55"/>
-      <c r="F62" s="56">
+      <c r="E62" s="50"/>
+      <c r="F62" s="51">
         <v>15.7</v>
       </c>
     </row>
-    <row r="63" spans="1:16384">
-      <c r="A63" s="53" t="s">
+    <row r="63" spans="1:16383">
+      <c r="A63" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="64"/>
-      <c r="D63" s="56">
+      <c r="C63" s="59"/>
+      <c r="D63" s="51">
         <v>14.26</v>
       </c>
-      <c r="E63" s="55"/>
-      <c r="F63" s="56">
+      <c r="E63" s="50"/>
+      <c r="F63" s="51">
         <v>12.5</v>
       </c>
     </row>
-    <row r="64" spans="1:16384">
-      <c r="A64" s="53" t="s">
+    <row r="64" spans="1:16383">
+      <c r="A64" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="B64" s="57" t="s">
+      <c r="B64" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="C64" s="64"/>
-      <c r="D64" s="56">
+      <c r="C64" s="59"/>
+      <c r="D64" s="51">
         <v>17.53</v>
       </c>
-      <c r="E64" s="55"/>
-      <c r="F64" s="56">
+      <c r="E64" s="50"/>
+      <c r="F64" s="51">
         <v>15.8</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="53" t="s">
+      <c r="A65" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="B65" s="53" t="s">
+      <c r="B65" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="C65" s="64"/>
-      <c r="D65" s="56">
+      <c r="C65" s="59"/>
+      <c r="D65" s="51">
         <v>44.36</v>
       </c>
-      <c r="E65" s="55"/>
-      <c r="F65" s="56">
+      <c r="E65" s="50"/>
+      <c r="F65" s="51">
         <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="53" t="s">
+      <c r="A66" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="B66" s="53" t="s">
+      <c r="B66" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="64"/>
-      <c r="D66" s="56">
+      <c r="C66" s="59"/>
+      <c r="D66" s="51">
         <v>27.73</v>
       </c>
-      <c r="E66" s="55"/>
-      <c r="F66" s="56">
+      <c r="E66" s="50"/>
+      <c r="F66" s="51">
         <v>26.3</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="53" t="s">
+      <c r="A67" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="B67" s="53" t="s">
+      <c r="B67" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="C67" s="64"/>
-      <c r="D67" s="56">
+      <c r="C67" s="59"/>
+      <c r="D67" s="51">
         <v>33.86</v>
       </c>
-      <c r="E67" s="55"/>
-      <c r="F67" s="56">
+      <c r="E67" s="50"/>
+      <c r="F67" s="51">
         <v>31.5</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="53" t="s">
+      <c r="A68" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="B68" s="53" t="s">
+      <c r="B68" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="C68" s="64"/>
-      <c r="D68" s="56">
+      <c r="C68" s="59"/>
+      <c r="D68" s="51">
         <v>25.92</v>
       </c>
-      <c r="E68" s="55"/>
-      <c r="F68" s="56">
+      <c r="E68" s="50"/>
+      <c r="F68" s="51">
         <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="53" t="s">
+      <c r="A69" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="B69" s="53" t="s">
+      <c r="B69" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="64"/>
-      <c r="D69" s="56">
+      <c r="C69" s="59"/>
+      <c r="D69" s="51">
         <v>21.71</v>
       </c>
-      <c r="E69" s="55"/>
-      <c r="F69" s="56">
+      <c r="E69" s="50"/>
+      <c r="F69" s="51">
         <v>23.1</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="53" t="s">
+      <c r="A70" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="B70" s="61" t="s">
+      <c r="B70" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="C70" s="64"/>
-      <c r="D70" s="56">
+      <c r="C70" s="59"/>
+      <c r="D70" s="51">
         <v>66.3</v>
       </c>
-      <c r="E70" s="55"/>
-      <c r="F70" s="56">
+      <c r="E70" s="50"/>
+      <c r="F70" s="51">
         <v>58.3</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="53" t="s">
+      <c r="A71" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="B71" s="61" t="s">
+      <c r="B71" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="C71" s="64"/>
-      <c r="D71" s="56">
+      <c r="C71" s="59"/>
+      <c r="D71" s="51">
         <v>49.66</v>
       </c>
-      <c r="E71" s="55"/>
-      <c r="F71" s="56">
+      <c r="E71" s="50"/>
+      <c r="F71" s="51">
         <v>60.9</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="53" t="s">
+      <c r="A72" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="B72" s="57" t="s">
+      <c r="B72" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="C72" s="64"/>
-      <c r="D72" s="56">
+      <c r="C72" s="59"/>
+      <c r="D72" s="51">
         <v>60.48</v>
       </c>
-      <c r="E72" s="55"/>
-      <c r="F72" s="56">
+      <c r="E72" s="50"/>
+      <c r="F72" s="51">
         <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="53" t="s">
+      <c r="A73" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="B73" s="61" t="s">
+      <c r="B73" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="C73" s="64"/>
-      <c r="D73" s="56">
+      <c r="C73" s="59"/>
+      <c r="D73" s="51">
         <v>66.47</v>
       </c>
-      <c r="E73" s="55"/>
-      <c r="F73" s="56">
+      <c r="E73" s="50"/>
+      <c r="F73" s="51">
         <v>85.6</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="53" t="s">
+      <c r="A74" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="57" t="s">
+      <c r="B74" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="C74" s="64"/>
-      <c r="D74" s="56">
+      <c r="C74" s="59"/>
+      <c r="D74" s="51">
         <v>40.69</v>
       </c>
-      <c r="E74" s="55"/>
-      <c r="F74" s="56">
+      <c r="E74" s="50"/>
+      <c r="F74" s="51">
         <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="53" t="s">
+      <c r="A75" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="B75" s="57" t="s">
+      <c r="B75" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="C75" s="64"/>
-      <c r="D75" s="56">
+      <c r="C75" s="59"/>
+      <c r="D75" s="51">
         <v>40.53</v>
       </c>
-      <c r="E75" s="55"/>
-      <c r="F75" s="56">
+      <c r="E75" s="50"/>
+      <c r="F75" s="51">
         <v>59.7</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="53" t="s">
+      <c r="A76" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="B76" s="53" t="s">
+      <c r="B76" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="C76" s="64"/>
-      <c r="D76" s="56">
+      <c r="C76" s="59"/>
+      <c r="D76" s="51">
         <v>20.34</v>
       </c>
-      <c r="E76" s="55"/>
-      <c r="F76" s="56">
+      <c r="E76" s="50"/>
+      <c r="F76" s="51">
         <v>23.3</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="53" t="s">
+      <c r="A77" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="B77" s="53"/>
-      <c r="C77" s="64"/>
-      <c r="D77" s="56">
+      <c r="B77" s="48"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="51">
         <v>35.200000000000003</v>
       </c>
-      <c r="E77" s="55"/>
-      <c r="F77" s="56">
+      <c r="E77" s="50"/>
+      <c r="F77" s="51">
         <v>35</v>
       </c>
     </row>
@@ -26687,7 +26829,10 @@
       <c r="E80" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="A6:A8"/>
